--- a/77.xlsx
+++ b/77.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bfarleigh1\Desktop\FPix3\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="16080" yWindow="0" windowWidth="15060" windowHeight="20520" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$N$80</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -1238,34 +1233,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:P80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I48" sqref="I48"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="3" max="3" width="8.375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="13.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.875" style="9"/>
-    <col min="6" max="6" width="10.875" style="5"/>
-    <col min="9" max="9" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="9"/>
+    <col min="6" max="6" width="11" style="5"/>
+    <col min="9" max="9" width="5.83203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.83203125" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" ht="26.25">
       <c r="A1" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="18.75">
       <c r="A3" s="1" t="s">
         <v>77</v>
       </c>
@@ -1274,10 +1269,10 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="B4" s="28"/>
     </row>
-    <row r="5" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="18.75">
       <c r="A5" s="1" t="s">
         <v>78</v>
       </c>
@@ -1289,7 +1284,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
         <v>79</v>
       </c>
@@ -1310,7 +1305,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
         <v>82</v>
       </c>
@@ -1320,7 +1315,7 @@
       </c>
       <c r="D7" s="31"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
         <v>83</v>
       </c>
@@ -1330,16 +1325,16 @@
       </c>
       <c r="D8" s="31"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15">
       <c r="B9" s="28"/>
       <c r="C9" s="21"/>
     </row>
-    <row r="11" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="18.75">
       <c r="A11" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -1347,7 +1342,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -1355,17 +1350,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15">
       <c r="B15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15">
       <c r="O16" s="18" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16">
       <c r="A17" s="3" t="s">
         <v>4</v>
       </c>
@@ -1403,7 +1398,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -1446,7 +1441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -1489,7 +1484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -1506,10 +1501,12 @@
         <f>D20*0.001*1.414</f>
         <v>2.828E-2</v>
       </c>
-      <c r="F20" s="13"/>
+      <c r="F20" s="13">
+        <v>19.989999999999998</v>
+      </c>
       <c r="G20" s="5" t="str">
         <f>IF(ABS(F20-D20)&lt;=E20,"ok","NOK")</f>
-        <v>NOK</v>
+        <v>ok</v>
       </c>
       <c r="I20">
         <v>3</v>
@@ -1524,14 +1521,14 @@
       </c>
       <c r="O20">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P20">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -1548,7 +1545,9 @@
         <f>D21*0.001</f>
         <v>0.01</v>
       </c>
-      <c r="F21" s="13"/>
+      <c r="F21" s="13">
+        <v>0.3</v>
+      </c>
       <c r="G21" s="5" t="str">
         <f>IF(ABS(F21-D21)&lt;=E21,"ok","NOK")</f>
         <v>NOK</v>
@@ -1573,7 +1572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -1616,7 +1615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -1659,7 +1658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -1702,7 +1701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -1745,7 +1744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -1788,7 +1787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -1831,7 +1830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -1874,7 +1873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -1917,7 +1916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -1960,7 +1959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -2003,7 +2002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16">
       <c r="A32" t="s">
         <v>13</v>
       </c>
@@ -2047,7 +2046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16">
       <c r="A33" t="s">
         <v>14</v>
       </c>
@@ -2090,7 +2089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16">
       <c r="A34" t="s">
         <v>15</v>
       </c>
@@ -2125,7 +2124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16">
       <c r="A35" t="s">
         <v>16</v>
       </c>
@@ -2155,7 +2154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16">
       <c r="A36" t="s">
         <v>17</v>
       </c>
@@ -2192,7 +2191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16">
       <c r="A37" t="s">
         <v>18</v>
       </c>
@@ -2225,7 +2224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16">
       <c r="A38" t="s">
         <v>19</v>
       </c>
@@ -2254,7 +2253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16">
       <c r="A39" t="s">
         <v>20</v>
       </c>
@@ -2294,7 +2293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16">
       <c r="A40" t="s">
         <v>21</v>
       </c>
@@ -2338,7 +2337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16">
       <c r="A41" t="s">
         <v>26</v>
       </c>
@@ -2382,7 +2381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16">
       <c r="A42" t="s">
         <v>28</v>
       </c>
@@ -2426,7 +2425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16">
       <c r="A43" t="s">
         <v>30</v>
       </c>
@@ -2471,7 +2470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16">
       <c r="A44" t="s">
         <v>32</v>
       </c>
@@ -2516,7 +2515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16">
       <c r="A45" t="s">
         <v>34</v>
       </c>
@@ -2561,7 +2560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16">
       <c r="A46" t="s">
         <v>12</v>
       </c>
@@ -2605,7 +2604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16">
       <c r="A47" t="s">
         <v>9</v>
       </c>
@@ -2648,7 +2647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16">
       <c r="A48" t="s">
         <v>9</v>
       </c>
@@ -2682,7 +2681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15">
       <c r="A49" t="s">
         <v>10</v>
       </c>
@@ -2710,7 +2709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15">
       <c r="A50" t="s">
         <v>10</v>
       </c>
@@ -2744,7 +2743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15">
       <c r="A51" t="s">
         <v>36</v>
       </c>
@@ -2778,7 +2777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15">
       <c r="A53" t="s">
         <v>40</v>
       </c>
@@ -2787,7 +2786,7 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15" ht="18.75">
       <c r="A55" s="1" t="s">
         <v>37</v>
       </c>
@@ -2797,11 +2796,11 @@
       <c r="K55" s="5"/>
       <c r="L55" s="5"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15">
       <c r="K56" s="5"/>
       <c r="L56" s="5"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15">
       <c r="A57" t="s">
         <v>1</v>
       </c>
@@ -2817,7 +2816,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15">
       <c r="A58" t="s">
         <v>3</v>
       </c>
@@ -2833,7 +2832,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15">
       <c r="I59" t="s">
         <v>76</v>
       </c>
@@ -2843,18 +2842,18 @@
         <v>67</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15">
       <c r="A60" t="s">
         <v>39</v>
       </c>
       <c r="B60" s="24"/>
     </row>
-    <row r="62" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15" ht="18.75">
       <c r="A62" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15">
       <c r="A64" t="s">
         <v>1</v>
       </c>
@@ -2865,7 +2864,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13">
       <c r="A65" t="s">
         <v>3</v>
       </c>
@@ -2878,7 +2877,7 @@
       <c r="J65" s="25"/>
       <c r="K65" s="17"/>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13">
       <c r="B66" t="s">
         <v>68</v>
       </c>
@@ -2893,7 +2892,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13">
       <c r="B67" t="s">
         <v>69</v>
       </c>
@@ -2908,12 +2907,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13">
       <c r="B68" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13">
       <c r="I69" t="s">
         <v>95</v>
       </c>
@@ -2925,7 +2924,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13">
       <c r="B70" t="s">
         <v>71</v>
       </c>
@@ -2937,7 +2936,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13">
       <c r="B71" t="s">
         <v>72</v>
       </c>
@@ -2946,7 +2945,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13">
       <c r="B72" t="s">
         <v>73</v>
       </c>
@@ -2977,17 +2976,17 @@
         <v>87</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13">
       <c r="C73" s="25"/>
       <c r="D73" s="17"/>
       <c r="G73" s="26"/>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13">
       <c r="C74" s="25"/>
       <c r="D74" s="4"/>
       <c r="G74" s="26"/>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13">
       <c r="A75" t="s">
         <v>39</v>
       </c>
@@ -2996,10 +2995,10 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13">
       <c r="B77" s="14"/>
     </row>
-    <row r="78" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" ht="18.75">
       <c r="A78" s="1" t="s">
         <v>66</v>
       </c>
@@ -3009,7 +3008,7 @@
         <v>REJECTED</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13">
       <c r="A80" t="s">
         <v>48</v>
       </c>
@@ -3030,7 +3029,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.43000000000000005" right="0.43000000000000005" top="0.51181102362204722" bottom="0.43000000000000005" header="0.43000000000000005" footer="0.43000000000000005"/>
-  <pageSetup paperSize="9" scale="61" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="100"/>
